--- a/design/demo/encrypt matrix.xlsx
+++ b/design/demo/encrypt matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,263 +38,263 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
-    <t>h</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>u</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>o</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t/>
+    <t>:</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
   <si>
     <t>z</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,162 +646,162 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="str">
         <f>CHAR(34) &amp; A1 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A1) &amp; CHAR(34) &amp; ","</f>
         <v>"`": "1",</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <f>CHAR(34) &amp; A2 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A2) &amp; CHAR(34) &amp; ","</f>
         <v>"s": "2",</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
         <f>CHAR(34) &amp; A3 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A3) &amp; CHAR(34) &amp; ","</f>
         <v>"P": "3",</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <f>CHAR(34) &amp; A4 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A4) &amp; CHAR(34) &amp; ","</f>
         <v>"D": "4",</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <f>CHAR(34) &amp; A5 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A5) &amp; CHAR(34) &amp; ","</f>
         <v>"R": "5",</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
         <f>CHAR(34) &amp; A6 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A6) &amp; CHAR(34) &amp; ","</f>
         <v>"l": "6",</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
         <f>CHAR(34) &amp; A7 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A7) &amp; CHAR(34) &amp; ","</f>
         <v>"p": "7",</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
         <f>CHAR(34) &amp; A8 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A8) &amp; CHAR(34) &amp; ","</f>
         <v>"%": "8",</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
         <f>CHAR(34) &amp; A9 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A9) &amp; CHAR(34) &amp; ","</f>
         <v>"=": "9",</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
         <f>CHAR(34) &amp; A10 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A10) &amp; CHAR(34) &amp; ","</f>
         <v>"e": "10",</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
         <f>CHAR(34) &amp; A11 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A11) &amp; CHAR(34) &amp; ","</f>
         <v>"b": "11",</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
         <f>CHAR(34) &amp; A12 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A12) &amp; CHAR(34) &amp; ","</f>
         <v>""": "12",</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
         <f>CHAR(34) &amp; A13 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A13) &amp; CHAR(34) &amp; ","</f>
         <v>"@": "13",</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
         <f>CHAR(34) &amp; A14 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A14) &amp; CHAR(34) &amp; ","</f>
         <v>"$": "14",</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
         <f>CHAR(34) &amp; A15 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A15) &amp; CHAR(34) &amp; ","</f>
         <v>"Y": "15",</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
         <f>CHAR(34) &amp; A16 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A16) &amp; CHAR(34) &amp; ","</f>
         <v>"B": "16",</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
         <f>CHAR(34) &amp; A17 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A17) &amp; CHAR(34) &amp; ","</f>
         <v>"^": "17",</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -810,178 +810,178 @@
         <v>"3": "18",</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" t="str">
         <f>CHAR(34) &amp; A19 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A19) &amp; CHAR(34) &amp; ","</f>
         <v>"\": "19",</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B20" t="str">
         <f>CHAR(34) &amp; A20 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A20) &amp; CHAR(34) &amp; ","</f>
         <v>"&amp;": "20",</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B21" t="str">
         <f>CHAR(34) &amp; A21 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A21) &amp; CHAR(34) &amp; ","</f>
         <v>"-": "21",</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B22" t="str">
         <f>CHAR(34) &amp; A22 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A22) &amp; CHAR(34) &amp; ","</f>
         <v>"}": "22",</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B23" t="str">
         <f>CHAR(34) &amp; A23 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A23) &amp; CHAR(34) &amp; ","</f>
         <v>"Z": "23",</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B24" t="str">
         <f>CHAR(34) &amp; A24 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A24) &amp; CHAR(34) &amp; ","</f>
         <v>"K": "24",</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>CHAR(34) &amp; A25 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A25) &amp; CHAR(34) &amp; ","</f>
         <v>"m": "25",</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B26" t="str">
         <f>CHAR(34) &amp; A26 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A26) &amp; CHAR(34) &amp; ","</f>
         <v>"k": "26",</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B27" t="str">
         <f>CHAR(34) &amp; A27 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A27) &amp; CHAR(34) &amp; ","</f>
         <v>"E": "27",</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B28" t="str">
         <f>CHAR(34) &amp; A28 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A28) &amp; CHAR(34) &amp; ","</f>
         <v>"w": "28",</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" t="str">
         <f>CHAR(34) &amp; A29 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A29) &amp; CHAR(34) &amp; ","</f>
         <v>"t": "29",</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B30" t="str">
         <f>CHAR(34) &amp; A30 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A30) &amp; CHAR(34) &amp; ","</f>
         <v>"n": "30",</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B31" t="str">
         <f>CHAR(34) &amp; A31 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A31) &amp; CHAR(34) &amp; ","</f>
         <v>"_": "31",</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" t="str">
         <f>CHAR(34) &amp; A32 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A32) &amp; CHAR(34) &amp; ","</f>
         <v>"!": "32",</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B33" t="str">
         <f>CHAR(34) &amp; A33 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A33) &amp; CHAR(34) &amp; ","</f>
         <v>"H": "33",</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" t="str">
         <f>CHAR(34) &amp; A34 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A34) &amp; CHAR(34) &amp; ","</f>
         <v>"u": "34",</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B35" t="str">
         <f>CHAR(34) &amp; A35 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A35) &amp; CHAR(34) &amp; ","</f>
         <v>"d": "35",</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" t="str">
         <f>CHAR(34) &amp; A36 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A36) &amp; CHAR(34) &amp; ","</f>
         <v>"y": "36",</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
         <f>CHAR(34) &amp; A37 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A37) &amp; CHAR(34) &amp; ","</f>
         <v>"#": "37",</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -990,16 +990,16 @@
         <v>"2": "38",</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B39" t="str">
         <f>CHAR(34) &amp; A39 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A39) &amp; CHAR(34) &amp; ","</f>
         <v>"X": "39",</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1008,52 +1008,52 @@
         <v>"1": "40",</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B41" t="str">
         <f>CHAR(34) &amp; A41 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A41) &amp; CHAR(34) &amp; ","</f>
         <v>")": "41",</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B42" t="str">
         <f>CHAR(34) &amp; A42 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A42) &amp; CHAR(34) &amp; ","</f>
         <v>"r": "42",</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B43" t="str">
         <f>CHAR(34) &amp; A43 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A43) &amp; CHAR(34) &amp; ","</f>
         <v>"~": "43",</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="str">
         <f>CHAR(34) &amp; A44 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A44) &amp; CHAR(34) &amp; ","</f>
         <v>"v": "44",</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B45" t="str">
         <f>CHAR(34) &amp; A45 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A45) &amp; CHAR(34) &amp; ","</f>
         <v>";": "45",</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1062,142 +1062,142 @@
         <v>"4": "46",</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B47" t="str">
         <f>CHAR(34) &amp; A47 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A47) &amp; CHAR(34) &amp; ","</f>
         <v>"G": "47",</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B48" t="str">
         <f>CHAR(34) &amp; A48 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A48) &amp; CHAR(34) &amp; ","</f>
         <v>"c": "48",</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B49" t="str">
         <f>CHAR(34) &amp; A49 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A49) &amp; CHAR(34) &amp; ","</f>
         <v>"h": "49",</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B50" t="str">
         <f>CHAR(34) &amp; A50 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A50) &amp; CHAR(34) &amp; ","</f>
         <v>"?": "50",</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B51" t="str">
         <f>CHAR(34) &amp; A51 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A51) &amp; CHAR(34) &amp; ","</f>
         <v>"": "51",</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B52" t="str">
         <f>CHAR(34) &amp; A52 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A52) &amp; CHAR(34) &amp; ","</f>
         <v>"J": "52",</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B53" t="str">
         <f>CHAR(34) &amp; A53 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A53) &amp; CHAR(34) &amp; ","</f>
         <v>"j": "53",</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B54" t="str">
         <f>CHAR(34) &amp; A54 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A54) &amp; CHAR(34) &amp; ","</f>
         <v>"(": "54",</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B55" t="str">
         <f>CHAR(34) &amp; A55 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A55) &amp; CHAR(34) &amp; ","</f>
         <v>"V": "55",</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B56" t="str">
         <f>CHAR(34) &amp; A56 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A56) &amp; CHAR(34) &amp; ","</f>
         <v>"a": "56",</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B57" t="str">
         <f>CHAR(34) &amp; A57 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A57) &amp; CHAR(34) &amp; ","</f>
         <v>"f": "57",</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B58" t="str">
         <f>CHAR(34) &amp; A58 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A58) &amp; CHAR(34) &amp; ","</f>
         <v>"q": "58",</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B59" t="str">
         <f>CHAR(34) &amp; A59 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A59) &amp; CHAR(34) &amp; ","</f>
         <v>"{": "59",</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B60" t="str">
         <f>CHAR(34) &amp; A60 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A60) &amp; CHAR(34) &amp; ","</f>
         <v>"F": "60",</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B61" t="str">
         <f>CHAR(34) &amp; A61 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A61) &amp; CHAR(34) &amp; ","</f>
         <v>"A": "61",</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1206,70 +1206,70 @@
         <v>"0": "62",</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B63" t="str">
         <f>CHAR(34) &amp; A63 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A63) &amp; CHAR(34) &amp; ","</f>
         <v>",": "63",</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B64" t="str">
         <f>CHAR(34) &amp; A64 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A64) &amp; CHAR(34) &amp; ","</f>
         <v>"+": "64",</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" t="str">
         <f>CHAR(34) &amp; A65 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A65) &amp; CHAR(34) &amp; ","</f>
         <v>"O": "65",</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B66" t="str">
         <f>CHAR(34) &amp; A66 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A66) &amp; CHAR(34) &amp; ","</f>
         <v>"L": "66",</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B67" t="str">
         <f>CHAR(34) &amp; A67 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A67) &amp; CHAR(34) &amp; ","</f>
         <v>"M": "67",</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B68" t="str">
         <f>CHAR(34) &amp; A68 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A68) &amp; CHAR(34) &amp; ","</f>
         <v>"g": "68",</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B69" t="str">
         <f>CHAR(34) &amp; A69 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A69) &amp; CHAR(34) &amp; ","</f>
         <v>"W": "69",</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>"7": "70",</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>8</v>
       </c>
@@ -1287,52 +1287,52 @@
         <v>"8": "71",</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B72" t="str">
         <f>CHAR(34) &amp; A72 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A72) &amp; CHAR(34) &amp; ","</f>
         <v>"T": "72",</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B73" t="str">
         <f>CHAR(34) &amp; A73 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A73) &amp; CHAR(34) &amp; ","</f>
         <v>"/": "73",</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B74" t="str">
         <f>CHAR(34) &amp; A74 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A74) &amp; CHAR(34) &amp; ","</f>
         <v>".": "74",</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B75" t="str">
         <f>CHAR(34) &amp; A75 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A75) &amp; CHAR(34) &amp; ","</f>
         <v>"i": "75",</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B76" t="str">
         <f>CHAR(34) &amp; A76 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A76) &amp; CHAR(34) &amp; ","</f>
         <v>"S": "76",</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>6</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>"6": "77",</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1350,70 +1350,70 @@
         <v>"9": "78",</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B79" t="str">
         <f>CHAR(34) &amp; A79 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A79) &amp; CHAR(34) &amp; ","</f>
         <v>"Q": "79",</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B80" t="str">
         <f>CHAR(34) &amp; A80 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A80) &amp; CHAR(34) &amp; ","</f>
         <v>"]": "80",</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B81" t="str">
         <f>CHAR(34) &amp; A81 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A81) &amp; CHAR(34) &amp; ","</f>
         <v>"N": "81",</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B82" t="str">
         <f>CHAR(34) &amp; A82 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A82) &amp; CHAR(34) &amp; ","</f>
         <v>"&gt;": "82",</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B83" t="str">
         <f>CHAR(34) &amp; A83 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A83) &amp; CHAR(34) &amp; ","</f>
         <v>"[": "83",</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B84" t="str">
         <f>CHAR(34) &amp; A84 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A84) &amp; CHAR(34) &amp; ","</f>
         <v>"I": "84",</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B85" t="str">
         <f>CHAR(34) &amp; A85 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A85) &amp; CHAR(34) &amp; ","</f>
         <v>"*": "85",</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>76</v>
       </c>
@@ -1422,25 +1422,25 @@
         <v>"C": "86",</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B87" t="str">
         <f>CHAR(34) &amp; A87 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A87) &amp; CHAR(34) &amp; ","</f>
         <v>"|": "87",</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B88" t="str">
         <f>CHAR(34) &amp; A88 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A88) &amp; CHAR(34) &amp; ","</f>
         <v>"x": "88",</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>5</v>
       </c>
@@ -1449,25 +1449,25 @@
         <v>"5": "89",</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B90" t="str">
         <f>CHAR(34) &amp; A90 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A90) &amp; CHAR(34) &amp; ","</f>
         <v>"o": "90",</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B91" t="str">
         <f>CHAR(34) &amp; A91 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A91) &amp; CHAR(34) &amp; ","</f>
         <v>":": "91",</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -1476,18 +1476,18 @@
         <v>"&lt;": "92",</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B93" t="str">
         <f>CHAR(34) &amp; A93 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A93) &amp; CHAR(34) &amp; ","</f>
         <v>"z": "93",</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B94" t="str">
         <f>CHAR(34) &amp; A94 &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; ROW(A94) &amp; CHAR(34) &amp; ","</f>
